--- a/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2388,7 +2391,7 @@
         <v>86.28</v>
       </c>
       <c r="C110">
-        <v>88.26000000000001</v>
+        <v>88.27</v>
       </c>
       <c r="D110">
         <v>97.94</v>
@@ -2408,7 +2411,7 @@
         <v>79.64</v>
       </c>
       <c r="C111">
-        <v>87.36</v>
+        <v>87.37</v>
       </c>
       <c r="D111">
         <v>90.40000000000001</v>
@@ -2428,7 +2431,7 @@
         <v>89.86</v>
       </c>
       <c r="C112">
-        <v>86.87</v>
+        <v>86.88</v>
       </c>
       <c r="D112">
         <v>101.99</v>
@@ -2448,7 +2451,7 @@
         <v>85.39</v>
       </c>
       <c r="C113">
-        <v>86.48</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="D113">
         <v>96.93000000000001</v>
@@ -2465,7 +2468,7 @@
         <v>86.39</v>
       </c>
       <c r="C114">
-        <v>87</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D114">
         <v>98.06</v>
@@ -2482,7 +2485,7 @@
         <v>87.77</v>
       </c>
       <c r="C115">
-        <v>88.93000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="D115">
         <v>99.63</v>
@@ -2499,7 +2502,7 @@
         <v>84.34</v>
       </c>
       <c r="C116">
-        <v>85.01000000000001</v>
+        <v>85.02</v>
       </c>
       <c r="D116">
         <v>95.73</v>
@@ -2516,7 +2519,7 @@
         <v>88.42</v>
       </c>
       <c r="C117">
-        <v>89.79000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D117">
         <v>100.36</v>
@@ -2550,7 +2553,7 @@
         <v>94.76000000000001</v>
       </c>
       <c r="C119">
-        <v>90.81999999999999</v>
+        <v>90.83</v>
       </c>
       <c r="D119">
         <v>107.56</v>
@@ -2567,7 +2570,7 @@
         <v>91.43000000000001</v>
       </c>
       <c r="C120">
-        <v>88.88</v>
+        <v>88.89</v>
       </c>
       <c r="D120">
         <v>103.78</v>
@@ -2584,7 +2587,7 @@
         <v>94.95</v>
       </c>
       <c r="C121">
-        <v>88.23</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="D121">
         <v>107.78</v>
@@ -2635,7 +2638,7 @@
         <v>85.89</v>
       </c>
       <c r="C124">
-        <v>82.76000000000001</v>
+        <v>82.77</v>
       </c>
       <c r="D124">
         <v>97.48999999999999</v>
@@ -2652,7 +2655,7 @@
         <v>89.31</v>
       </c>
       <c r="C125">
-        <v>90.63</v>
+        <v>90.64</v>
       </c>
       <c r="D125">
         <v>101.38</v>
@@ -2669,7 +2672,7 @@
         <v>88.3</v>
       </c>
       <c r="C126">
-        <v>88.65000000000001</v>
+        <v>88.66</v>
       </c>
       <c r="D126">
         <v>100.23</v>
@@ -2686,7 +2689,7 @@
         <v>90.27</v>
       </c>
       <c r="C127">
-        <v>91.43000000000001</v>
+        <v>91.44</v>
       </c>
       <c r="D127">
         <v>102.47</v>
@@ -2703,7 +2706,7 @@
         <v>91.27</v>
       </c>
       <c r="C128">
-        <v>92.13</v>
+        <v>92.14</v>
       </c>
       <c r="D128">
         <v>103.6</v>
@@ -2720,7 +2723,7 @@
         <v>93.34</v>
       </c>
       <c r="C129">
-        <v>93.69</v>
+        <v>93.7</v>
       </c>
       <c r="D129">
         <v>105.95</v>
@@ -2737,7 +2740,7 @@
         <v>88.03</v>
       </c>
       <c r="C130">
-        <v>90.84999999999999</v>
+        <v>90.86</v>
       </c>
       <c r="D130">
         <v>99.93000000000001</v>
@@ -2771,7 +2774,7 @@
         <v>94.66</v>
       </c>
       <c r="C132">
-        <v>91.73</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="D132">
         <v>107.45</v>
@@ -2788,7 +2791,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C133">
-        <v>91.95</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D133">
         <v>111.82</v>
@@ -2805,7 +2808,7 @@
         <v>92.77</v>
       </c>
       <c r="C134">
-        <v>95.06999999999999</v>
+        <v>95.08</v>
       </c>
       <c r="D134">
         <v>105.3</v>
@@ -2825,7 +2828,7 @@
         <v>82.94</v>
       </c>
       <c r="C135">
-        <v>90.42</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D135">
         <v>94.14</v>
@@ -2845,7 +2848,7 @@
         <v>97.93000000000001</v>
       </c>
       <c r="C136">
-        <v>93.48999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="D136">
         <v>111.16</v>
@@ -2905,7 +2908,7 @@
         <v>91.04000000000001</v>
       </c>
       <c r="C139">
-        <v>92.36</v>
+        <v>92.37</v>
       </c>
       <c r="D139">
         <v>103.34</v>
@@ -2925,7 +2928,7 @@
         <v>86.19</v>
       </c>
       <c r="C140">
-        <v>87.66</v>
+        <v>87.67</v>
       </c>
       <c r="D140">
         <v>97.83</v>
@@ -2965,7 +2968,7 @@
         <v>92.38</v>
       </c>
       <c r="C142">
-        <v>94.56999999999999</v>
+        <v>94.58</v>
       </c>
       <c r="D142">
         <v>104.85</v>
@@ -2985,7 +2988,7 @@
         <v>96.56999999999999</v>
       </c>
       <c r="C143">
-        <v>94.36</v>
+        <v>94.37</v>
       </c>
       <c r="D143">
         <v>109.62</v>
@@ -3025,7 +3028,7 @@
         <v>103.77</v>
       </c>
       <c r="C145">
-        <v>97.31999999999999</v>
+        <v>97.33</v>
       </c>
       <c r="D145">
         <v>117.79</v>
@@ -3045,7 +3048,7 @@
         <v>93.91</v>
       </c>
       <c r="C146">
-        <v>95.36</v>
+        <v>95.37</v>
       </c>
       <c r="D146">
         <v>106.6</v>
@@ -3065,7 +3068,7 @@
         <v>90.18000000000001</v>
       </c>
       <c r="C147">
-        <v>94.25</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="D147">
         <v>102.36</v>
@@ -3085,7 +3088,7 @@
         <v>100.09</v>
       </c>
       <c r="C148">
-        <v>96.09</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D148">
         <v>113.61</v>
@@ -3105,7 +3108,7 @@
         <v>95.31</v>
       </c>
       <c r="C149">
-        <v>97.37</v>
+        <v>97.38</v>
       </c>
       <c r="D149">
         <v>108.19</v>
@@ -3145,7 +3148,7 @@
         <v>94.43000000000001</v>
       </c>
       <c r="C151">
-        <v>95.91</v>
+        <v>95.92</v>
       </c>
       <c r="D151">
         <v>107.19</v>
@@ -3165,7 +3168,7 @@
         <v>91.2</v>
       </c>
       <c r="C152">
-        <v>93.42</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="D152">
         <v>103.52</v>
@@ -3185,7 +3188,7 @@
         <v>98.22</v>
       </c>
       <c r="C153">
-        <v>97.84999999999999</v>
+        <v>97.86</v>
       </c>
       <c r="D153">
         <v>111.49</v>
@@ -3205,7 +3208,7 @@
         <v>92.5</v>
       </c>
       <c r="C154">
-        <v>97.26000000000001</v>
+        <v>97.27</v>
       </c>
       <c r="D154">
         <v>105</v>
@@ -3225,7 +3228,7 @@
         <v>101.42</v>
       </c>
       <c r="C155">
-        <v>97.53</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="D155">
         <v>115.12</v>
@@ -3285,7 +3288,7 @@
         <v>99.87</v>
       </c>
       <c r="C158">
-        <v>101.25</v>
+        <v>101.26</v>
       </c>
       <c r="D158">
         <v>113.36</v>
@@ -3305,7 +3308,7 @@
         <v>92.47</v>
       </c>
       <c r="C159">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="D159">
         <v>104.96</v>
@@ -3325,7 +3328,7 @@
         <v>102.76</v>
       </c>
       <c r="C160">
-        <v>100.68</v>
+        <v>100.69</v>
       </c>
       <c r="D160">
         <v>116.64</v>
@@ -3345,7 +3348,7 @@
         <v>96.81</v>
       </c>
       <c r="C161">
-        <v>97.11</v>
+        <v>97.12</v>
       </c>
       <c r="D161">
         <v>109.89</v>
@@ -3385,7 +3388,7 @@
         <v>96.66</v>
       </c>
       <c r="C163">
-        <v>99.05</v>
+        <v>99.06</v>
       </c>
       <c r="D163">
         <v>109.72</v>
@@ -3425,7 +3428,7 @@
         <v>100.98</v>
       </c>
       <c r="C165">
-        <v>101.02</v>
+        <v>101.03</v>
       </c>
       <c r="D165">
         <v>114.62</v>
@@ -3445,7 +3448,7 @@
         <v>95.38</v>
       </c>
       <c r="C166">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="D166">
         <v>108.26</v>
@@ -3465,7 +3468,7 @@
         <v>104.05</v>
       </c>
       <c r="C167">
-        <v>100.62</v>
+        <v>100.63</v>
       </c>
       <c r="D167">
         <v>118.11</v>
@@ -3485,7 +3488,7 @@
         <v>104.12</v>
       </c>
       <c r="C168">
-        <v>101.59</v>
+        <v>101.6</v>
       </c>
       <c r="D168">
         <v>118.18</v>
@@ -3505,7 +3508,7 @@
         <v>105</v>
       </c>
       <c r="C169">
-        <v>99.41</v>
+        <v>99.42</v>
       </c>
       <c r="D169">
         <v>119.19</v>
@@ -3525,7 +3528,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C170">
-        <v>99.91</v>
+        <v>99.92</v>
       </c>
       <c r="D170">
         <v>111.81</v>
@@ -3545,7 +3548,7 @@
         <v>93.94</v>
       </c>
       <c r="C171">
-        <v>101.27</v>
+        <v>101.25</v>
       </c>
       <c r="D171">
         <v>107.25</v>
@@ -3565,7 +3568,7 @@
         <v>103.1</v>
       </c>
       <c r="C172">
-        <v>99.38</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D172">
         <v>118.13</v>
@@ -3585,7 +3588,7 @@
         <v>100.04</v>
       </c>
       <c r="C173">
-        <v>101.26</v>
+        <v>101.21</v>
       </c>
       <c r="D173">
         <v>111.87</v>
@@ -3605,7 +3608,7 @@
         <v>102.59</v>
       </c>
       <c r="C174">
-        <v>101.96</v>
+        <v>101.97</v>
       </c>
       <c r="D174">
         <v>114.84</v>
@@ -3625,7 +3628,7 @@
         <v>99.23999999999999</v>
       </c>
       <c r="C175">
-        <v>101.53</v>
+        <v>101.56</v>
       </c>
       <c r="D175">
         <v>112.24</v>
@@ -3645,7 +3648,7 @@
         <v>98.70999999999999</v>
       </c>
       <c r="C176">
-        <v>99.56</v>
+        <v>99.61</v>
       </c>
       <c r="D176">
         <v>111.12</v>
@@ -3665,7 +3668,7 @@
         <v>97.84999999999999</v>
       </c>
       <c r="C177">
-        <v>98.8</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D177">
         <v>112.86</v>
@@ -3685,7 +3688,7 @@
         <v>95.97</v>
       </c>
       <c r="C178">
-        <v>98.78</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D178">
         <v>109.07</v>
@@ -3705,7 +3708,7 @@
         <v>104.07</v>
       </c>
       <c r="C179">
-        <v>99.76000000000001</v>
+        <v>99.81</v>
       </c>
       <c r="D179">
         <v>117.74</v>
@@ -3725,7 +3728,7 @@
         <v>100.31</v>
       </c>
       <c r="C180">
-        <v>98.72</v>
+        <v>98.7</v>
       </c>
       <c r="D180">
         <v>114.3</v>
@@ -3745,7 +3748,7 @@
         <v>105.67</v>
       </c>
       <c r="C181">
-        <v>100.33</v>
+        <v>100.28</v>
       </c>
       <c r="D181">
         <v>120.88</v>
@@ -3765,7 +3768,7 @@
         <v>101.38</v>
       </c>
       <c r="C182">
-        <v>103.56</v>
+        <v>103.55</v>
       </c>
       <c r="D182">
         <v>118.76</v>
@@ -3785,7 +3788,7 @@
         <v>94.17</v>
       </c>
       <c r="C183">
-        <v>101.26</v>
+        <v>101.24</v>
       </c>
       <c r="D183">
         <v>106.86</v>
@@ -3825,7 +3828,7 @@
         <v>99.95999999999999</v>
       </c>
       <c r="C185">
-        <v>101.41</v>
+        <v>101.4</v>
       </c>
       <c r="D185">
         <v>111.91</v>
@@ -3845,7 +3848,7 @@
         <v>101.47</v>
       </c>
       <c r="C186">
-        <v>101.52</v>
+        <v>101.49</v>
       </c>
       <c r="D186">
         <v>114.42</v>
@@ -3865,7 +3868,7 @@
         <v>101.45</v>
       </c>
       <c r="C187">
-        <v>103.94</v>
+        <v>103.92</v>
       </c>
       <c r="D187">
         <v>114.42</v>
@@ -3885,7 +3888,7 @@
         <v>99.16</v>
       </c>
       <c r="C188">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="D188">
         <v>109.95</v>
@@ -3905,7 +3908,7 @@
         <v>95.15000000000001</v>
       </c>
       <c r="C189">
-        <v>95.69</v>
+        <v>95.72</v>
       </c>
       <c r="D189">
         <v>107.3</v>
@@ -3925,7 +3928,7 @@
         <v>99.06999999999999</v>
       </c>
       <c r="C190">
-        <v>100.85</v>
+        <v>100.81</v>
       </c>
       <c r="D190">
         <v>110.36</v>
@@ -3945,7 +3948,7 @@
         <v>104.24</v>
       </c>
       <c r="C191">
-        <v>101.1</v>
+        <v>101.12</v>
       </c>
       <c r="D191">
         <v>117.2</v>
@@ -3965,7 +3968,7 @@
         <v>100.96</v>
       </c>
       <c r="C192">
-        <v>98.58</v>
+        <v>98.61</v>
       </c>
       <c r="D192">
         <v>114.9</v>
@@ -3985,7 +3988,7 @@
         <v>104.93</v>
       </c>
       <c r="C193">
-        <v>99.40000000000001</v>
+        <v>99.42</v>
       </c>
       <c r="D193">
         <v>116.8</v>
@@ -4025,7 +4028,7 @@
         <v>96.88</v>
       </c>
       <c r="C195">
-        <v>99.97</v>
+        <v>100.02</v>
       </c>
       <c r="D195">
         <v>108.7</v>
@@ -4065,7 +4068,7 @@
         <v>97.69</v>
       </c>
       <c r="C197">
-        <v>98.66</v>
+        <v>98.64</v>
       </c>
       <c r="D197">
         <v>108.03</v>
@@ -4085,7 +4088,7 @@
         <v>101.24</v>
       </c>
       <c r="C198">
-        <v>99.38</v>
+        <v>99.41</v>
       </c>
       <c r="D198">
         <v>112.08</v>
@@ -4105,7 +4108,7 @@
         <v>97.15000000000001</v>
       </c>
       <c r="C199">
-        <v>99.34999999999999</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="D199">
         <v>110.25</v>
@@ -4125,7 +4128,7 @@
         <v>96.56</v>
       </c>
       <c r="C200">
-        <v>98.31</v>
+        <v>98.28</v>
       </c>
       <c r="D200">
         <v>107.84</v>
@@ -4145,7 +4148,7 @@
         <v>99.08</v>
       </c>
       <c r="C201">
-        <v>98.28</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="D201">
         <v>110.23</v>
@@ -4165,7 +4168,7 @@
         <v>97.59</v>
       </c>
       <c r="C202">
-        <v>98.72</v>
+        <v>98.67</v>
       </c>
       <c r="D202">
         <v>110.04</v>
@@ -4185,7 +4188,7 @@
         <v>98.47</v>
       </c>
       <c r="C203">
-        <v>97.06999999999999</v>
+        <v>97.08</v>
       </c>
       <c r="D203">
         <v>108.51</v>
@@ -4205,7 +4208,7 @@
         <v>102.24</v>
       </c>
       <c r="C204">
-        <v>99.73</v>
+        <v>99.69</v>
       </c>
       <c r="D204">
         <v>113.35</v>
@@ -4225,7 +4228,7 @@
         <v>104.28</v>
       </c>
       <c r="C205">
-        <v>98.55</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="D205">
         <v>117.18</v>
@@ -4245,7 +4248,7 @@
         <v>96.33</v>
       </c>
       <c r="C206">
-        <v>98.66</v>
+        <v>98.63</v>
       </c>
       <c r="E206">
         <v>94.29000000000001</v>
@@ -4279,7 +4282,7 @@
         <v>97.31</v>
       </c>
       <c r="C208">
-        <v>91.20999999999999</v>
+        <v>91.22</v>
       </c>
       <c r="E208">
         <v>104.26</v>
@@ -4296,7 +4299,7 @@
         <v>92.76000000000001</v>
       </c>
       <c r="C209">
-        <v>97.3</v>
+        <v>97.34</v>
       </c>
       <c r="E209">
         <v>91.47</v>
@@ -4313,7 +4316,7 @@
         <v>100.1</v>
       </c>
       <c r="C210">
-        <v>97.69</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E210">
         <v>101.41</v>
@@ -4330,7 +4333,7 @@
         <v>95.56</v>
       </c>
       <c r="C211">
-        <v>98.11</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E211">
         <v>94.25</v>
@@ -4347,7 +4350,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C212">
-        <v>100.09</v>
+        <v>100.1</v>
       </c>
       <c r="E212">
         <v>96.53</v>
@@ -4364,7 +4367,7 @@
         <v>103.09</v>
       </c>
       <c r="C213">
-        <v>101.85</v>
+        <v>101.84</v>
       </c>
       <c r="E213">
         <v>100.3</v>
@@ -4381,7 +4384,7 @@
         <v>98.33</v>
       </c>
       <c r="C214">
-        <v>100.92</v>
+        <v>100.86</v>
       </c>
       <c r="E214">
         <v>92.77</v>
@@ -4398,7 +4401,7 @@
         <v>102.77</v>
       </c>
       <c r="C215">
-        <v>100.95</v>
+        <v>101</v>
       </c>
       <c r="E215">
         <v>95.09999999999999</v>
@@ -4432,7 +4435,7 @@
         <v>104.39</v>
       </c>
       <c r="C217">
-        <v>100.16</v>
+        <v>100.09</v>
       </c>
       <c r="E217">
         <v>96.64</v>
@@ -4449,7 +4452,7 @@
         <v>99.89</v>
       </c>
       <c r="C218">
-        <v>101.25</v>
+        <v>101.2</v>
       </c>
       <c r="E218">
         <v>98.79000000000001</v>
@@ -4477,7 +4480,7 @@
         <v>106.24</v>
       </c>
       <c r="C220">
-        <v>102.27</v>
+        <v>102.33</v>
       </c>
       <c r="E220">
         <v>101.55</v>
@@ -4491,7 +4494,7 @@
         <v>99.48999999999999</v>
       </c>
       <c r="C221">
-        <v>101.22</v>
+        <v>101.37</v>
       </c>
       <c r="E221">
         <v>100.11</v>
@@ -4505,7 +4508,7 @@
         <v>103.38</v>
       </c>
       <c r="C222">
-        <v>102.01</v>
+        <v>101.97</v>
       </c>
       <c r="E222">
         <v>101.39</v>
@@ -4519,7 +4522,7 @@
         <v>100.6</v>
       </c>
       <c r="C223">
-        <v>103.16</v>
+        <v>103.11</v>
       </c>
       <c r="E223">
         <v>98.93000000000001</v>
@@ -4533,7 +4536,7 @@
         <v>99.88</v>
       </c>
       <c r="C224">
-        <v>102.2</v>
+        <v>102.06</v>
       </c>
       <c r="E224">
         <v>95.44</v>
@@ -4547,7 +4550,7 @@
         <v>102.76</v>
       </c>
       <c r="C225">
-        <v>101.39</v>
+        <v>101.36</v>
       </c>
       <c r="E225">
         <v>104.49</v>
@@ -4561,7 +4564,7 @@
         <v>95.97</v>
       </c>
       <c r="C226">
-        <v>100.58</v>
+        <v>100.51</v>
       </c>
       <c r="E226">
         <v>89.08</v>
@@ -4575,7 +4578,7 @@
         <v>104.37</v>
       </c>
       <c r="C227">
-        <v>100.65</v>
+        <v>100.67</v>
       </c>
       <c r="E227">
         <v>105.59</v>
@@ -4589,7 +4592,7 @@
         <v>106.55</v>
       </c>
       <c r="C228">
-        <v>104.66</v>
+        <v>104.62</v>
       </c>
       <c r="E228">
         <v>102.71</v>
@@ -4603,7 +4606,7 @@
         <v>107.88</v>
       </c>
       <c r="C229">
-        <v>103.02</v>
+        <v>103.05</v>
       </c>
       <c r="E229">
         <v>102.17</v>
@@ -4617,7 +4620,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C230">
-        <v>100.53</v>
+        <v>100.52</v>
       </c>
       <c r="E230">
         <v>100.96</v>
@@ -4631,7 +4634,7 @@
         <v>92.55</v>
       </c>
       <c r="C231">
-        <v>99.73</v>
+        <v>99.75</v>
       </c>
       <c r="E231">
         <v>89.17</v>
@@ -4645,7 +4648,7 @@
         <v>104.56</v>
       </c>
       <c r="C232">
-        <v>100.13</v>
+        <v>100.17</v>
       </c>
       <c r="E232">
         <v>103.76</v>
@@ -4659,7 +4662,7 @@
         <v>100.05</v>
       </c>
       <c r="C233">
-        <v>102.43</v>
+        <v>102.67</v>
       </c>
       <c r="E233">
         <v>97.47</v>
@@ -4673,7 +4676,7 @@
         <v>103.64</v>
       </c>
       <c r="C234">
-        <v>102.88</v>
+        <v>102.92</v>
       </c>
       <c r="E234">
         <v>101.36</v>
@@ -4687,7 +4690,7 @@
         <v>97.33</v>
       </c>
       <c r="C235">
-        <v>101.23</v>
+        <v>101.13</v>
       </c>
       <c r="E235">
         <v>95.08</v>
@@ -4701,7 +4704,7 @@
         <v>101.32</v>
       </c>
       <c r="C236">
-        <v>101.72</v>
+        <v>101.67</v>
       </c>
       <c r="E236">
         <v>101.45</v>
@@ -4715,7 +4718,7 @@
         <v>104.11</v>
       </c>
       <c r="C237">
-        <v>103.16</v>
+        <v>103.1</v>
       </c>
       <c r="E237">
         <v>97.73</v>
@@ -4729,7 +4732,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="C238">
-        <v>101.28</v>
+        <v>101.26</v>
       </c>
       <c r="E238">
         <v>93.33</v>
@@ -4743,7 +4746,7 @@
         <v>101.4</v>
       </c>
       <c r="C239">
-        <v>98.37</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="E239">
         <v>99.88</v>
@@ -4757,7 +4760,7 @@
         <v>103.94</v>
       </c>
       <c r="C240">
-        <v>101.45</v>
+        <v>101.41</v>
       </c>
       <c r="E240">
         <v>101</v>
@@ -4771,7 +4774,7 @@
         <v>110.85</v>
       </c>
       <c r="C241">
-        <v>104.81</v>
+        <v>104.83</v>
       </c>
       <c r="E241">
         <v>100.1</v>
@@ -4785,7 +4788,7 @@
         <v>101.37</v>
       </c>
       <c r="C242">
-        <v>102.74</v>
+        <v>102.73</v>
       </c>
       <c r="E242">
         <v>101.82</v>
@@ -4799,7 +4802,7 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C243">
-        <v>101.57</v>
+        <v>101.63</v>
       </c>
       <c r="E243">
         <v>95.05</v>
@@ -4813,7 +4816,7 @@
         <v>105.6</v>
       </c>
       <c r="C244">
-        <v>100.89</v>
+        <v>101</v>
       </c>
       <c r="E244">
         <v>103.52</v>
@@ -4827,10 +4830,10 @@
         <v>96.03</v>
       </c>
       <c r="C245">
-        <v>97.83</v>
+        <v>98.09</v>
       </c>
       <c r="E245">
-        <v>94.48</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4841,10 +4844,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="C246">
-        <v>98.36</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="E246">
-        <v>93.59</v>
+        <v>93.61</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4852,13 +4855,13 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>94.78</v>
+        <v>94.75</v>
       </c>
       <c r="C247">
-        <v>97.52</v>
+        <v>97.37</v>
       </c>
       <c r="E247">
-        <v>87.59999999999999</v>
+        <v>87.61</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4869,7 +4872,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C248">
-        <v>98.15000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="E248">
         <v>97.40000000000001</v>
@@ -4883,10 +4886,10 @@
         <v>99.03</v>
       </c>
       <c r="C249">
-        <v>98.45999999999999</v>
+        <v>98.45</v>
       </c>
       <c r="E249">
-        <v>98.56</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4897,7 +4900,7 @@
         <v>98.34999999999999</v>
       </c>
       <c r="C250">
-        <v>100.58</v>
+        <v>100.48</v>
       </c>
       <c r="E250">
         <v>96.01000000000001</v>
@@ -4911,7 +4914,7 @@
         <v>104.98</v>
       </c>
       <c r="C251">
-        <v>102.26</v>
+        <v>102.21</v>
       </c>
       <c r="E251">
         <v>103.42</v>
@@ -4925,7 +4928,7 @@
         <v>103.5</v>
       </c>
       <c r="C252">
-        <v>100.52</v>
+        <v>100.5</v>
       </c>
       <c r="E252">
         <v>102.75</v>
@@ -4939,7 +4942,7 @@
         <v>106.86</v>
       </c>
       <c r="C253">
-        <v>100.48</v>
+        <v>100.47</v>
       </c>
       <c r="E253">
         <v>104.91</v>
@@ -4953,7 +4956,7 @@
         <v>98.98999999999999</v>
       </c>
       <c r="C254">
-        <v>101.85</v>
+        <v>101.81</v>
       </c>
       <c r="E254">
         <v>98.34999999999999</v>
@@ -4967,7 +4970,7 @@
         <v>94.05</v>
       </c>
       <c r="C255">
-        <v>101.53</v>
+        <v>101.58</v>
       </c>
       <c r="E255">
         <v>93.04000000000001</v>
@@ -4981,7 +4984,7 @@
         <v>108.75</v>
       </c>
       <c r="C256">
-        <v>102.82</v>
+        <v>102.95</v>
       </c>
       <c r="E256">
         <v>110.88</v>
@@ -4995,7 +4998,7 @@
         <v>100.88</v>
       </c>
       <c r="C257">
-        <v>102.88</v>
+        <v>103.21</v>
       </c>
       <c r="E257">
         <v>101.58</v>
@@ -5006,13 +5009,27 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>100.85</v>
+        <v>100.79</v>
       </c>
       <c r="C258">
-        <v>101.51</v>
+        <v>101.55</v>
       </c>
       <c r="E258">
-        <v>102.96</v>
+        <v>102.95</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259">
+        <v>100.47</v>
+      </c>
+      <c r="C259">
+        <v>103.78</v>
+      </c>
+      <c r="E259">
+        <v>103.17</v>
       </c>
     </row>
   </sheetData>
